--- a/misc/11-604.xlsx
+++ b/misc/11-604.xlsx
@@ -105,11 +105,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,6 +131,14 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF3333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,7 +190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,6 +203,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -203,6 +216,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -214,7 +287,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G2:G20"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.2" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -315,7 +388,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>8</v>
@@ -325,7 +398,7 @@
       </c>
       <c r="G5" s="2" t="n">
         <f aca="false">SUM(B5:F5)</f>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -381,7 +454,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -397,7 +470,7 @@
       </c>
       <c r="G8" s="2" t="n">
         <f aca="false">SUM(B8:F8)</f>
-        <v>18.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -653,8 +726,8 @@
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>7</v>
+      <c r="B20" s="3" t="n">
+        <v>11</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>4</v>
@@ -670,7 +743,7 @@
       </c>
       <c r="G20" s="2" t="n">
         <f aca="false">SUM(B20:F20)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/misc/11-604.xlsx
+++ b/misc/11-604.xlsx
@@ -287,7 +287,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.2" outlineLevelRow="0" outlineLevelCol="0"/>
